--- a/Training_Book.xlsx
+++ b/Training_Book.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chasehubbs/Desktop/Research/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chasehubbs/Desktop/already uploaded/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C01033-7085-CB4E-A811-2025F53242B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E635F1F-D3E5-2648-80A5-53C3F219029E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2480" yWindow="1340" windowWidth="18420" windowHeight="17440" xr2:uid="{4C6FEDBF-D362-6841-A7EC-0AE33A3F85CC}"/>
+    <workbookView xWindow="2380" yWindow="760" windowWidth="18420" windowHeight="17440" xr2:uid="{4C6FEDBF-D362-6841-A7EC-0AE33A3F85CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,112 +44,112 @@
     <t>Training_Pics</t>
   </si>
   <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/Image4.png</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/Image5.png</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/ImageCurved5.png</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/ImageD.png</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/ImageK.png</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/ImageX.png</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/ImageY.png</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/Imagei.png</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/Image1.png</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/Image3.png</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/Image8.png</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/Image10.png</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/ImageA.png</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/ImageAdducted5.png</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/ImageAdductedBent5.png</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/ImageB.png</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/ImageC.png</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/ImageCurved3.png</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/ImageCurvedL.png</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/ImageCurvedV.png</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/ImageE.png</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/ImageF.png</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/ImageFlatO.png</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/ImageG.png</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/ImageL.png</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/ImageO.png</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/ImageOpen8.png</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/ImageR.png</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/ImageS.png</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/ImageTouchX.png</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/ImageU.png</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/ImageUlnar1.png</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/ImageUlnarL.png</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/ImageV.png</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/ImageW.png</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/ImageH_URadial.png</t>
+    <t>Image10.png</t>
+  </si>
+  <si>
+    <t>Image4.png</t>
+  </si>
+  <si>
+    <t>ImageFlatO.png</t>
+  </si>
+  <si>
+    <t>ImageO.png</t>
+  </si>
+  <si>
+    <t>ImageCurved3.png</t>
+  </si>
+  <si>
+    <t>ImageW.png</t>
+  </si>
+  <si>
+    <t>ImageTouchX.png</t>
+  </si>
+  <si>
+    <t>ImageU.png</t>
+  </si>
+  <si>
+    <t>ImageUlnarL.png</t>
+  </si>
+  <si>
+    <t>Image3.png</t>
+  </si>
+  <si>
+    <t>ImageUlnar1.png</t>
+  </si>
+  <si>
+    <t>Image8.png</t>
+  </si>
+  <si>
+    <t>ImageE.png</t>
+  </si>
+  <si>
+    <t>ImageV.png</t>
+  </si>
+  <si>
+    <t>ImageD.png</t>
+  </si>
+  <si>
+    <t>ImageH_URadial.png</t>
+  </si>
+  <si>
+    <t>ImageCurvedL.png</t>
+  </si>
+  <si>
+    <t>ImageX.png</t>
+  </si>
+  <si>
+    <t>Image1.png</t>
+  </si>
+  <si>
+    <t>ImageCurvedV.png</t>
+  </si>
+  <si>
+    <t>Imagei.png</t>
+  </si>
+  <si>
+    <t>Image5.png</t>
+  </si>
+  <si>
+    <t>ImageB.png</t>
+  </si>
+  <si>
+    <t>ImageL.png</t>
+  </si>
+  <si>
+    <t>ImageCurved5.png</t>
+  </si>
+  <si>
+    <t>ImageG.png</t>
+  </si>
+  <si>
+    <t>ImageOpen8.png</t>
+  </si>
+  <si>
+    <t>ImageK.png</t>
+  </si>
+  <si>
+    <t>ImageA.png</t>
+  </si>
+  <si>
+    <t>ImageAdducted5.png</t>
+  </si>
+  <si>
+    <t>ImageF.png</t>
+  </si>
+  <si>
+    <t>ImageAdductedBent5.png</t>
+  </si>
+  <si>
+    <t>ImageY.png</t>
+  </si>
+  <si>
+    <t>ImageC.png</t>
+  </si>
+  <si>
+    <t>ImageS.png</t>
+  </si>
+  <si>
+    <t>ImageR.png</t>
   </si>
 </sst>
 </file>
@@ -530,9 +530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F65CCE-246A-2643-A9FB-37C8C29CBF28}">
   <dimension ref="A1:A37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -543,47 +541,47 @@
     </row>
     <row r="2" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="17" x14ac:dyDescent="0.2">
@@ -593,47 +591,47 @@
     </row>
     <row r="12" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="17" x14ac:dyDescent="0.2">
@@ -643,32 +641,32 @@
     </row>
     <row r="22" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="17" x14ac:dyDescent="0.2">
@@ -678,47 +676,47 @@
     </row>
     <row r="29" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
